--- a/结果/CHB-MIT数据集/SVM分类/标准差/SVM_chb03_biaozhuncha.xlsx
+++ b/结果/CHB-MIT数据集/SVM分类/标准差/SVM_chb03_biaozhuncha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\CHB-MIT数据集\SVM分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021306BD-9F18-4345-9FF7-3397D0F93CE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626AB817-153C-4326-B7C8-5E4BAB0CD92B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10464" yWindow="1476" windowWidth="15828" windowHeight="10632" activeTab="5" xr2:uid="{63210084-5822-47AF-B5CC-D3EDA19B97F5}"/>
+    <workbookView xWindow="6216" yWindow="1680" windowWidth="15828" windowHeight="12300" activeTab="6" xr2:uid="{63210084-5822-47AF-B5CC-D3EDA19B97F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Origin" sheetId="1" r:id="rId1"/>
@@ -1375,7 +1375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C5AC2F-E61E-4B70-A027-C8EEC90CD0AC}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:C33"/>
     </sheetView>
   </sheetViews>
@@ -1565,10 +1565,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A26A2E-88C2-44A3-AFE8-1D9D389D98A4}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1584,6 +1584,171 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>96.875</v>
+      </c>
+      <c r="B2">
+        <v>93.75</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>96.875</v>
+      </c>
+      <c r="B4">
+        <v>97.826099999999997</v>
+      </c>
+      <c r="C4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>97.916700000000006</v>
+      </c>
+      <c r="B6">
+        <v>98.181799999999996</v>
+      </c>
+      <c r="C6">
+        <v>97.561000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>93.75</v>
+      </c>
+      <c r="B8">
+        <v>92.857100000000003</v>
+      </c>
+      <c r="C8">
+        <v>94.444400000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>96.875</v>
+      </c>
+      <c r="B10">
+        <v>95.918400000000005</v>
+      </c>
+      <c r="C10">
+        <v>97.872299999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>95.833299999999994</v>
+      </c>
+      <c r="B13">
+        <v>92.982500000000002</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>95.833299999999994</v>
+      </c>
+      <c r="B15">
+        <v>95.555599999999998</v>
+      </c>
+      <c r="C15">
+        <v>96.078400000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>93.75</v>
+      </c>
+      <c r="B19">
+        <v>90.909099999999995</v>
+      </c>
+      <c r="C19">
+        <v>96.153800000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>98.958299999999994</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>97.777799999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>97.916700000000006</v>
+      </c>
+      <c r="B24">
+        <v>98.076899999999995</v>
+      </c>
+      <c r="C24">
+        <v>97.7273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>97.916700000000006</v>
+      </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <v>95.833299999999994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>95.833299999999994</v>
+      </c>
+      <c r="B28">
+        <v>96</v>
+      </c>
+      <c r="C28">
+        <v>95.652199999999993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>96.875</v>
+      </c>
+      <c r="B30">
+        <v>95.555599999999998</v>
+      </c>
+      <c r="C30">
+        <v>98.039199999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>94.791700000000006</v>
+      </c>
+      <c r="B32">
+        <v>88.888900000000007</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/结果/CHB-MIT数据集/SVM分类/标准差/SVM_chb03_biaozhuncha.xlsx
+++ b/结果/CHB-MIT数据集/SVM分类/标准差/SVM_chb03_biaozhuncha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\CHB-MIT数据集\SVM分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626AB817-153C-4326-B7C8-5E4BAB0CD92B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E2EC9A-C86A-4728-9C23-9F2CCA56803F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6216" yWindow="1680" windowWidth="15828" windowHeight="12300" activeTab="6" xr2:uid="{63210084-5822-47AF-B5CC-D3EDA19B97F5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{63210084-5822-47AF-B5CC-D3EDA19B97F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Origin" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +66,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -94,8 +103,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -412,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E27F2C1-585B-487D-81C2-E3A65FD568E0}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C33"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -594,6 +606,20 @@
       </c>
       <c r="C32">
         <v>85.365899999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>90.55556</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>95.20107999999999</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>86.274433333333334</v>
       </c>
     </row>
   </sheetData>
@@ -605,10 +631,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3876FE-53BA-45BD-ABE9-55B1A114369A}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -787,6 +813,20 @@
       </c>
       <c r="C32">
         <v>77.2727</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>87.916666666666671</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>96.864513333333335</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>79.039433333333335</v>
       </c>
     </row>
   </sheetData>
@@ -797,10 +837,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FC49C7-3AA0-4E38-8C2C-B8B2440A6AF6}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C33"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -979,6 +1019,20 @@
       </c>
       <c r="C32">
         <v>70.588200000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>87.43056</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>95.868719999999996</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>79.092779999999991</v>
       </c>
     </row>
   </sheetData>
@@ -989,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B39022-4823-45F2-B2F1-A97E9380D592}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:C34"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1171,6 +1225,20 @@
       </c>
       <c r="C33">
         <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <f t="shared" ref="A34:C34" si="0">AVERAGE(A2:A33)</f>
+        <v>89.652773333333329</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="0"/>
+        <v>95.792193333333344</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="0"/>
+        <v>83.622720000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1181,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03212B3A-73F0-4B13-8413-59A6EBC5922D}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C33"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1363,6 +1431,20 @@
       </c>
       <c r="C32">
         <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>94.166666666666671</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>95.74150666666668</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>92.758459999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1373,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C5AC2F-E61E-4B70-A027-C8EEC90CD0AC}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C33"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1555,6 +1637,20 @@
       </c>
       <c r="C32">
         <v>91.111099999999993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>93.888893333333328</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>95.672580000000011</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>92.027566666666672</v>
       </c>
     </row>
   </sheetData>
@@ -1565,10 +1661,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A26A2E-88C2-44A3-AFE8-1D9D389D98A4}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1749,6 +1845,20 @@
         <v>100</v>
       </c>
     </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>95.766799999999975</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>97.54264666666667</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
